--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E307614B-DA33-4818-A227-53838D8E1117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013D756-B88E-4A87-8E62-71FA0C36E0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="4900" windowWidth="28800" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>OuterIPForClient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注意高亮行为本地测试用，第一行为云端部署用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +104,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,6 +162,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.6328125" style="3" customWidth="1"/>
@@ -465,7 +486,12 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -482,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -499,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -516,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -530,6 +556,23 @@
         <v>9</v>
       </c>
       <c r="G6" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7">
         <v>10000</v>
       </c>
     </row>
